--- a/data/dataset031324.xlsx
+++ b/data/dataset031324.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmil/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmmba/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FFD7F0-6359-6A45-8208-D4D6878AFB95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6564281F-755F-AE41-AB14-57C3CCD6F32B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10920" yWindow="500" windowWidth="30240" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7368" uniqueCount="2925">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7390" uniqueCount="2933">
   <si>
     <t>Procedure</t>
   </si>
@@ -8809,6 +8809,30 @@
   </si>
   <si>
     <t>Accession</t>
+  </si>
+  <si>
+    <t>adrenal</t>
+  </si>
+  <si>
+    <t>The patient is a 60-year-old female who had a mass on prior imaging. Urine metanephrines are normal. We want a CT scan to characterize the mass further.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adrenal mass   </t>
+  </si>
+  <si>
+    <t>Adrenal mass, follow up CT for mass</t>
+  </si>
+  <si>
+    <t>The patient is a 45-year-old female who had a mass on prior imaging. No symptoms. We want a CT scan to characterize the mass further.</t>
+  </si>
+  <si>
+    <t>Potential renal donor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The patient is a 40-year-old-male who plans to give kidney to his brother. No prior imaging. </t>
+  </si>
+  <si>
+    <t>The patient is a 50-year-old-female with father undergoing renal transplant evaluation</t>
   </si>
 </sst>
 </file>
@@ -9181,10 +9205,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M1174"/>
+  <dimension ref="A1:M1178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
-      <selection activeCell="H238" sqref="H238"/>
+    <sheetView tabSelected="1" topLeftCell="A1148" workbookViewId="0">
+      <selection activeCell="C1177" sqref="C1177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -48893,6 +48917,136 @@
         <v>2923</v>
       </c>
     </row>
+    <row r="1175" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1175">
+        <v>801173</v>
+      </c>
+      <c r="B1175" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1175" t="s">
+        <v>574</v>
+      </c>
+      <c r="E1175" t="s">
+        <v>574</v>
+      </c>
+      <c r="F1175">
+        <v>1.2</v>
+      </c>
+      <c r="G1175">
+        <v>0</v>
+      </c>
+      <c r="H1175">
+        <v>0</v>
+      </c>
+      <c r="J1175" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1175" t="s">
+        <v>2925</v>
+      </c>
+      <c r="L1175" t="s">
+        <v>576</v>
+      </c>
+      <c r="M1175" t="s">
+        <v>2926</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1176">
+        <v>801174</v>
+      </c>
+      <c r="B1176" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1176" t="s">
+        <v>2927</v>
+      </c>
+      <c r="E1176" t="s">
+        <v>2928</v>
+      </c>
+      <c r="F1176">
+        <v>1.3</v>
+      </c>
+      <c r="G1176">
+        <v>0</v>
+      </c>
+      <c r="H1176">
+        <v>0</v>
+      </c>
+      <c r="J1176" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1176" t="s">
+        <v>2925</v>
+      </c>
+      <c r="L1176" t="s">
+        <v>576</v>
+      </c>
+      <c r="M1176" t="s">
+        <v>2929</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1177">
+        <v>801175</v>
+      </c>
+      <c r="B1177" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1177" t="s">
+        <v>2930</v>
+      </c>
+      <c r="E1177" t="s">
+        <v>2930</v>
+      </c>
+      <c r="F1177">
+        <v>1</v>
+      </c>
+      <c r="G1177">
+        <v>0</v>
+      </c>
+      <c r="H1177">
+        <v>0</v>
+      </c>
+      <c r="J1177" t="str">
+        <f>B1177</f>
+        <v>CT abdomen pelvis with and without contrast</v>
+      </c>
+      <c r="M1177" t="s">
+        <v>2931</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1178">
+        <v>801176</v>
+      </c>
+      <c r="B1178" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1178" t="s">
+        <v>2930</v>
+      </c>
+      <c r="E1178" t="s">
+        <v>2930</v>
+      </c>
+      <c r="F1178">
+        <v>0.9</v>
+      </c>
+      <c r="G1178">
+        <v>0</v>
+      </c>
+      <c r="H1178">
+        <v>0</v>
+      </c>
+      <c r="J1178" t="str">
+        <f>B1178</f>
+        <v>CT abdomen pelvis with and without contrast</v>
+      </c>
+      <c r="M1178" t="s">
+        <v>2932</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
